--- a/素材计划.xlsx
+++ b/素材计划.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Downloads\WoAutoCollectionPlugin0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AAE5B2-C378-43B2-B85D-DB5F18516C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0DEA4-DC28-40A8-A3A0-547B57AED41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1350" windowWidth="19620" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="限时材料" sheetId="1" r:id="rId1"/>
     <sheet name="普通材料" sheetId="2" r:id="rId2"/>
+    <sheet name="6.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
   <si>
     <t>物品</t>
   </si>
@@ -229,6 +230,306 @@
   </si>
   <si>
     <t>血红奇异果(lv40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增半成品</t>
+  </si>
+  <si>
+    <t>仁面树木材</t>
+  </si>
+  <si>
+    <t>褐铁锭</t>
+  </si>
+  <si>
+    <t>金红石石英</t>
+  </si>
+  <si>
+    <t>泰坦巨蟒革</t>
+  </si>
+  <si>
+    <t>涩木染布</t>
+  </si>
+  <si>
+    <t>（材料来源）</t>
+  </si>
+  <si>
+    <t>材料1（需求5）</t>
+  </si>
+  <si>
+    <t>仁面树原木</t>
+  </si>
+  <si>
+    <t>钛铁矿</t>
+  </si>
+  <si>
+    <t>金红石石英原石</t>
+  </si>
+  <si>
+    <t>诃子</t>
+  </si>
+  <si>
+    <t>涩木</t>
+  </si>
+  <si>
+    <t>采集</t>
+  </si>
+  <si>
+    <t>材料2（需求2）</t>
+  </si>
+  <si>
+    <t>拉札罕清漆</t>
+  </si>
+  <si>
+    <t>褐铅矿</t>
+  </si>
+  <si>
+    <t>萨维奈贵榴石</t>
+  </si>
+  <si>
+    <t>泰坦巨蟒的粗皮</t>
+  </si>
+  <si>
+    <t>白花葛布</t>
+  </si>
+  <si>
+    <t>新增幻水</t>
+  </si>
+  <si>
+    <t>7级刚力之幻水</t>
+  </si>
+  <si>
+    <t>7级智力之幻水</t>
+  </si>
+  <si>
+    <t>7级巧力之幻水</t>
+  </si>
+  <si>
+    <t>7级耐力之幻水</t>
+  </si>
+  <si>
+    <t>7级意力之幻水</t>
+  </si>
+  <si>
+    <t>灰绿硅藻土
+采集素材</t>
+  </si>
+  <si>
+    <t>甜香荠</t>
+  </si>
+  <si>
+    <t>邪衣薰衣草</t>
+  </si>
+  <si>
+    <t>光芒大丁草</t>
+  </si>
+  <si>
+    <t>青柠罗勒草</t>
+  </si>
+  <si>
+    <t>虎百合</t>
+  </si>
+  <si>
+    <t>灰绿硅藻土</t>
+  </si>
+  <si>
+    <t>天水</t>
+  </si>
+  <si>
+    <t>新增料理</t>
+  </si>
+  <si>
+    <t>甜瓜派
+（直击信念）</t>
+  </si>
+  <si>
+    <t>甜瓜汁
+（技速直击）</t>
+  </si>
+  <si>
+    <t>日落胡萝卜点心
+（暴击技速）</t>
+  </si>
+  <si>
+    <t>胡萝卜布丁
+（信念暴击）</t>
+  </si>
+  <si>
+    <t>沙威玛烤肉
+（信仰信念）</t>
+  </si>
+  <si>
+    <t>洛夫坦臀肉排
+（咏速信仰）</t>
+  </si>
+  <si>
+    <t>钟摆火山番茄沙拉
+（咏速直击）</t>
+  </si>
+  <si>
+    <t>加雷马披萨
+（暴击咏速）</t>
+  </si>
+  <si>
+    <t>海胆意面
+（坚韧信念）</t>
+  </si>
+  <si>
+    <t>大王海胆面包
+（信念坚韧）</t>
+  </si>
+  <si>
+    <t>裸麦粉*2</t>
+  </si>
+  <si>
+    <t>棕榈糖*2</t>
+  </si>
+  <si>
+    <t>紫苏油*2</t>
+  </si>
+  <si>
+    <t>北洋食盐*2</t>
+  </si>
+  <si>
+    <t>加雷马奶酪*2</t>
+  </si>
+  <si>
+    <t>椰奶*2</t>
+  </si>
+  <si>
+    <t>雷霆甜瓜</t>
+  </si>
+  <si>
+    <t>日落胡萝卜</t>
+  </si>
+  <si>
+    <t>高级洛夫坦臀肉</t>
+  </si>
+  <si>
+    <t>钟摆火山番茄</t>
+  </si>
+  <si>
+    <t>大王海胆</t>
+  </si>
+  <si>
+    <t>发酵黄油</t>
+  </si>
+  <si>
+    <t>野园甜菜糖</t>
+  </si>
+  <si>
+    <t>黑夜醋</t>
+  </si>
+  <si>
+    <t>山地小麦粉</t>
+  </si>
+  <si>
+    <t>高地干面</t>
+  </si>
+  <si>
+    <t>牦牛奶油</t>
+  </si>
+  <si>
+    <t>厄尔庇斯之鸟蛋</t>
+  </si>
+  <si>
+    <t>古代肉豆蔻</t>
+  </si>
+  <si>
+    <t>星外洋葱</t>
+  </si>
+  <si>
+    <t>冰山莴笋</t>
+  </si>
+  <si>
+    <t>黑夜胡椒</t>
+  </si>
+  <si>
+    <t>小柠檬</t>
+  </si>
+  <si>
+    <t>麝牛奶</t>
+  </si>
+  <si>
+    <t>萨维奈彩椒</t>
+  </si>
+  <si>
+    <t>中原罗勒草</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>奶油菇</t>
+  </si>
+  <si>
+    <t>新增爆发药</t>
+  </si>
+  <si>
+    <t>7级刚力之幻药</t>
+  </si>
+  <si>
+    <t>7级智力之幻药</t>
+  </si>
+  <si>
+    <t>7级巧力之幻药</t>
+  </si>
+  <si>
+    <t>7级耐力之幻药</t>
+  </si>
+  <si>
+    <t>7级意力之幻药</t>
+  </si>
+  <si>
+    <t>5级刚力之幻水</t>
+  </si>
+  <si>
+    <t>5级智力之幻水</t>
+  </si>
+  <si>
+    <t>5级巧力之幻水</t>
+  </si>
+  <si>
+    <t>5级耐力之幻水</t>
+  </si>
+  <si>
+    <t>5级意力之幻水</t>
+  </si>
+  <si>
+    <t>帕拉卡槲寄生</t>
+  </si>
+  <si>
+    <t>表中红字皆为暂译名
+如有差异以6.2上线后官方翻译为准
+6.2版本新增生产十卷，每本需要1200白票兑换，配方难度为三星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文点数兑换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫票兑换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.80以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星外洋葱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓月灵砂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红弓鳍鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +589,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +611,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -311,11 +644,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +813,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,13 +1278,13 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -759,9 +1299,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
@@ -776,9 +1316,9 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -791,9 +1331,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -806,9 +1346,9 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
@@ -821,9 +1361,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -836,9 +1376,9 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
@@ -851,9 +1391,9 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
@@ -867,9 +1407,9 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
@@ -882,9 +1422,9 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
@@ -897,9 +1437,9 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
@@ -912,9 +1452,9 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
@@ -929,9 +1469,9 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -944,9 +1484,9 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -959,9 +1499,9 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
@@ -974,7 +1514,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -995,7 +1535,7 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1014,7 +1554,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1091,8 +1631,8 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
+      <c r="A28" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>38</v>
@@ -1112,8 +1652,14 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>42</v>
@@ -1343,6 +1889,20 @@
         <v>28</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1363,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
@@ -1443,4 +2003,692 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EA0BF3-9288-4956-987F-9D7826A97643}">
+  <dimension ref="B1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="16.125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="33"/>
+      <c r="C8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="33"/>
+      <c r="C9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="35"/>
+      <c r="C16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="35"/>
+      <c r="C17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="35"/>
+      <c r="C18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="21"/>
+      <c r="C23" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="35"/>
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I6:N10"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/素材计划.xlsx
+++ b/素材计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Downloads\WoAutoCollectionPlugin0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0DEA4-DC28-40A8-A3A0-547B57AED41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C567D56-67CC-4C72-99BA-57983C1B4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="165">
   <si>
     <t>物品</t>
   </si>
@@ -530,6 +530,22 @@
   </si>
   <si>
     <t>红弓鳍鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰绿硅藻土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">迷津 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>石场</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +553,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +613,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +656,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,45 +816,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +866,18 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,7 +890,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -884,10 +914,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,11 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1278,13 +1320,13 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1299,9 +1341,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1316,9 +1358,9 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1331,9 +1373,9 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1346,9 +1388,9 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1361,9 +1403,9 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1376,9 +1418,9 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1391,9 +1433,9 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1407,9 +1449,9 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1422,9 +1464,9 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1437,9 +1479,9 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1452,9 +1494,9 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1469,9 +1511,9 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1484,9 +1526,9 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1499,9 +1541,9 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1514,7 +1556,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1535,7 +1577,7 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1596,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +1673,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1652,13 +1694,13 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1718,19 +1760,11 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
     </row>
     <row r="33" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -1748,9 +1782,6 @@
       </c>
       <c r="G34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
     </row>
     <row r="35" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -1767,31 +1798,24 @@
         <v>40</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="6"/>
-    </row>
-    <row r="36" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:29" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="35">
+        <v>6</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="4"/>
+      <c r="F36" s="38" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="37" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
@@ -1808,10 +1832,6 @@
         <v>51</v>
       </c>
       <c r="M37" s="4"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
       <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,16 +1848,8 @@
       <c r="F38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="6"/>
       <c r="O38" s="4"/>
-      <c r="Q38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="Y38" s="6"/>
       <c r="AA38" s="4"/>
-      <c r="AC38" s="6"/>
     </row>
     <row r="39" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -1854,29 +1866,17 @@
         <v>43</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
       <c r="AC39" s="4"/>
     </row>
     <row r="40" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
     </row>
     <row r="41" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
     </row>
     <row r="42" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -1893,18 +1893,37 @@
       </c>
     </row>
     <row r="43" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="45" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q45" s="34"/>
+      <c r="AC45" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1915,7 +1934,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1930,13 +1949,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="3.875" style="7"/>
+    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="3.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,14 +1978,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1979,14 +1998,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2015,672 +2034,672 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="16.125" style="7"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="16.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="35"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
